--- a/ClassStructure.xlsx
+++ b/ClassStructure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Planet.js</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>orbit = new Orbit()</t>
+  </si>
+  <si>
+    <t>SolarSystemData.js</t>
+  </si>
+  <si>
+    <t>[earth:{x:12,y:12,….},mars:{}]</t>
+  </si>
+  <si>
+    <t>Loader.js</t>
+  </si>
+  <si>
+    <t>engine.js</t>
+  </si>
+  <si>
+    <t>Initialize data(run Loader) UI interaction (mous click), Animation start, stop, show info</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +425,9 @@
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -425,9 +443,15 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -442,9 +466,15 @@
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>

--- a/ClassStructure.xlsx
+++ b/ClassStructure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Planet.js</t>
   </si>
@@ -59,10 +59,13 @@
     <t>Loader.js</t>
   </si>
   <si>
-    <t>engine.js</t>
-  </si>
-  <si>
     <t>Initialize data(run Loader) UI interaction (mous click), Animation start, stop, show info</t>
+  </si>
+  <si>
+    <t>Data.js</t>
+  </si>
+  <si>
+    <t>Engine.js</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,13 +447,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -473,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/ClassStructure.xlsx
+++ b/ClassStructure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Planet.js</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Engine.js</t>
+  </si>
+  <si>
+    <t>Georo1</t>
+  </si>
+  <si>
+    <t>Ivo</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Mitko</t>
+  </si>
+  <si>
+    <t>Georo2 + docs</t>
+  </si>
+  <si>
+    <t>Delcho + doc</t>
   </si>
 </sst>
 </file>
@@ -416,81 +434,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -498,7 +526,9 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -747,6 +777,17 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
